--- a/Testdata/UtilityOutcome_ECON_Data_Staging.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F59E074-6DEE-418A-B20B-2726FF97A811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19532F73-AFE5-43FB-8220-A260020F1E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Population</t>
   </si>
@@ -53,9 +53,6 @@
     <t>ExpectedFilenames</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>ExpectedSourceTemplateFile</t>
   </si>
   <si>
@@ -107,10 +104,16 @@
     <t>OldImportLogic_1 - TestAutomation_1_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-OldImportLogic_1 - TestAutomation_1-Economic-</t>
-  </si>
-  <si>
     <t>WordReport-OldImportLogic_1 - TestAutomation_1-Economic-</t>
+  </si>
+  <si>
+    <t>ExcelReport-OldImportLogic_1-TestAutomation_1-Economic-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-OldImportLogic_1 - TestAutomation_1-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-QOL_and_ECON - UtilityOutcome-Economic-2023_</t>
   </si>
 </sst>
 </file>
@@ -430,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,13 +465,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -476,44 +479,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -525,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0606389C-B75C-4657-B9FD-C008CF805818}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,13 +558,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -569,36 +572,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_ECON_Data_Staging.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Staging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19532F73-AFE5-43FB-8220-A260020F1E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B9B24-164A-48A5-A561-F485037E20B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>QOL_and_ECON - UtilityOutcome_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-QOL_and_ECON - UtilityOutcome-Economic-</t>
-  </si>
-  <si>
     <t>WordReport-QOL_and_ECON - UtilityOutcome-Economic-</t>
   </si>
   <si>
@@ -110,10 +107,13 @@
     <t>ExcelReport-OldImportLogic_1-TestAutomation_1-Economic-</t>
   </si>
   <si>
-    <t>StandardExcelReport-OldImportLogic_1 - TestAutomation_1-Economic-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-QOL_and_ECON - UtilityOutcome-Economic-2023_</t>
+    <t>StandardExcelReport-QOL_and_ECON-UtilityOutcome-Economic-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-QOL_and_ECON-UtilityOutcome-Economic-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-OldImportLogic_1-TestAutomation_1-Economic-2023_</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -511,12 +511,12 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0606389C-B75C-4657-B9FD-C008CF805818}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
     <col min="5" max="5" width="76.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -572,10 +572,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,12 +604,12 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_ECON_Data_Staging.xlsx
+++ b/Testdata/UtilityOutcome_ECON_Data_Staging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B9B24-164A-48A5-A561-F485037E20B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85478645-BB1C-43BF-9EAF-BF346DFC84DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,25 +95,25 @@
     <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\OldImportLogic\ECON_OldImportExpectedResult.xlsx</t>
   </si>
   <si>
-    <t>OldImportLogic_1 - TestAutomation_1</t>
-  </si>
-  <si>
-    <t>OldImportLogic_1 - TestAutomation_1_radio_button</t>
-  </si>
-  <si>
-    <t>WordReport-OldImportLogic_1 - TestAutomation_1-Economic-</t>
-  </si>
-  <si>
-    <t>ExcelReport-OldImportLogic_1-TestAutomation_1-Economic-</t>
-  </si>
-  <si>
     <t>StandardExcelReport-QOL_and_ECON-UtilityOutcome-Economic-2023_</t>
   </si>
   <si>
     <t>ExcelReport-QOL_and_ECON-UtilityOutcome-Economic-</t>
   </si>
   <si>
-    <t>StandardExcelReport-OldImportLogic_1-TestAutomation_1-Economic-2023_</t>
+    <t>OldImportLogic_2 - TestAutomation_2</t>
+  </si>
+  <si>
+    <t>OldImportLogic_2 - TestAutomation_2_radio_button</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-OldImportLogic_2-TestAutomation_2-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-OldImportLogic_2-TestAutomation_2-Quality of Life-</t>
+  </si>
+  <si>
+    <t>WordReport-OldImportLogic_2 - TestAutomation_2-Quality of Life-</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,10 +572,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,12 +604,12 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
